--- a/data/long_razon/P24_6-Urba-long_razon.xlsx
+++ b/data/long_razon/P24_6-Urba-long_razon.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +589,62 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,62%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>50,4%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-1,47%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-2,6%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>26,31%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-2,72%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-2,16%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>37,6%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-2,1%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-25,89; 28,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>18,12; 97,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-25,65; 24,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-21,52; 19,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,9; 56,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-18,76; 18,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-17,37; 14,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>16,53; 62,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-15,92; 14,87</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -742,47 +850,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-29,42%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>84,37%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>12,92%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-29,21%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>23,48%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>1,89%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-29,31%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>52,33%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>7,52%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -795,47 +933,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-47,11; -6,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>34,79; 151,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-10,95; 44,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-44,32; -9,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-4,66; 61,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-18,09; 26,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-41,8; -16,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>24,81; 86,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-6,61; 28,84</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -852,47 +1020,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-10,11%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>19,94%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>72,22%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>18,61%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>35,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-23,5%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>4,3%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>27,35%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>15,34%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1103,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-47,96; 62,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-26,5; 120,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,48; 180,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-26,33; 82,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-12,36; 130,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-50,01; 16,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-25,93; 48,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-9,26; 85,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-15,22; 61,65</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -962,47 +1190,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-15,51%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>58,53%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>11,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-11,93%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>26,31%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-3,58%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-13,63%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>41,7%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>3,62%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1015,60 +1273,97 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-30,43; 2,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>32,41; 91,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-5,35; 31,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-24,41; 1,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>10,94; 48,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-15,72; 9,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-22,68; -2,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>24,96; 59,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-6,97; 16,08</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_razon/P24_6-Urba-long_razon.xlsx
+++ b/data/long_razon/P24_6-Urba-long_razon.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +140,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +509,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q12"/>
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -678,509 +683,145 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="O4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="P4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="Q4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C4" s="5" t="inlineStr"/>
+      <c r="D4" s="5" t="inlineStr"/>
+      <c r="E4" s="5" t="inlineStr"/>
+      <c r="F4" s="5" t="inlineStr"/>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="inlineStr"/>
+      <c r="I4" s="5" t="inlineStr"/>
+      <c r="J4" s="5" t="inlineStr"/>
+      <c r="K4" s="5" t="inlineStr"/>
+      <c r="L4" s="5" t="inlineStr"/>
+      <c r="M4" s="5" t="inlineStr"/>
+      <c r="N4" s="5" t="inlineStr"/>
+      <c r="O4" s="5" t="inlineStr"/>
+      <c r="P4" s="5" t="inlineStr"/>
+      <c r="Q4" s="5" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="O5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="P5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="Q5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr"/>
+      <c r="D5" s="5" t="inlineStr"/>
+      <c r="E5" s="5" t="inlineStr"/>
+      <c r="F5" s="5" t="inlineStr"/>
+      <c r="G5" s="5" t="inlineStr"/>
+      <c r="H5" s="5" t="inlineStr"/>
+      <c r="I5" s="5" t="inlineStr"/>
+      <c r="J5" s="5" t="inlineStr"/>
+      <c r="K5" s="5" t="inlineStr"/>
+      <c r="L5" s="5" t="inlineStr"/>
+      <c r="M5" s="5" t="inlineStr"/>
+      <c r="N5" s="5" t="inlineStr"/>
+      <c r="O5" s="5" t="inlineStr"/>
+      <c r="P5" s="5" t="inlineStr"/>
+      <c r="Q5" s="5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr"/>
+      <c r="D6" s="5" t="inlineStr"/>
+      <c r="E6" s="5" t="inlineStr"/>
+      <c r="F6" s="5" t="inlineStr"/>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="5" t="inlineStr"/>
+      <c r="I6" s="5" t="inlineStr"/>
+      <c r="J6" s="5" t="inlineStr"/>
+      <c r="K6" s="5" t="inlineStr"/>
+      <c r="L6" s="5" t="inlineStr"/>
+      <c r="M6" s="5" t="inlineStr"/>
+      <c r="N6" s="5" t="inlineStr"/>
+      <c r="O6" s="5" t="inlineStr"/>
+      <c r="P6" s="5" t="inlineStr"/>
+      <c r="Q6" s="5" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="O6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="P6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="Q6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="O7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="P7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="Q7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C7" s="5" t="inlineStr"/>
+      <c r="D7" s="5" t="inlineStr"/>
+      <c r="E7" s="5" t="inlineStr"/>
+      <c r="F7" s="5" t="inlineStr"/>
+      <c r="G7" s="5" t="inlineStr"/>
+      <c r="H7" s="5" t="inlineStr"/>
+      <c r="I7" s="5" t="inlineStr"/>
+      <c r="J7" s="5" t="inlineStr"/>
+      <c r="K7" s="5" t="inlineStr"/>
+      <c r="L7" s="5" t="inlineStr"/>
+      <c r="M7" s="5" t="inlineStr"/>
+      <c r="N7" s="5" t="inlineStr"/>
+      <c r="O7" s="5" t="inlineStr"/>
+      <c r="P7" s="5" t="inlineStr"/>
+      <c r="Q7" s="5" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="O8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="P8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="Q8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr"/>
+      <c r="D8" s="5" t="inlineStr"/>
+      <c r="E8" s="5" t="inlineStr"/>
+      <c r="F8" s="5" t="inlineStr"/>
+      <c r="G8" s="5" t="inlineStr"/>
+      <c r="H8" s="5" t="inlineStr"/>
+      <c r="I8" s="5" t="inlineStr"/>
+      <c r="J8" s="5" t="inlineStr"/>
+      <c r="K8" s="5" t="inlineStr"/>
+      <c r="L8" s="5" t="inlineStr"/>
+      <c r="M8" s="5" t="inlineStr"/>
+      <c r="N8" s="5" t="inlineStr"/>
+      <c r="O8" s="5" t="inlineStr"/>
+      <c r="P8" s="5" t="inlineStr"/>
+      <c r="Q8" s="5" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="O9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="P9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="Q9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr"/>
+      <c r="D9" s="5" t="inlineStr"/>
+      <c r="E9" s="5" t="inlineStr"/>
+      <c r="F9" s="5" t="inlineStr"/>
+      <c r="G9" s="5" t="inlineStr"/>
+      <c r="H9" s="5" t="inlineStr"/>
+      <c r="I9" s="5" t="inlineStr"/>
+      <c r="J9" s="5" t="inlineStr"/>
+      <c r="K9" s="5" t="inlineStr"/>
+      <c r="L9" s="5" t="inlineStr"/>
+      <c r="M9" s="5" t="inlineStr"/>
+      <c r="N9" s="5" t="inlineStr"/>
+      <c r="O9" s="5" t="inlineStr"/>
+      <c r="P9" s="5" t="inlineStr"/>
+      <c r="Q9" s="5" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1188,167 +829,143 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="O10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="P10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="Q10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="inlineStr"/>
+      <c r="D10" s="5" t="inlineStr"/>
+      <c r="E10" s="5" t="inlineStr"/>
+      <c r="F10" s="5" t="inlineStr"/>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="5" t="inlineStr"/>
+      <c r="J10" s="5" t="inlineStr"/>
+      <c r="K10" s="5" t="inlineStr"/>
+      <c r="L10" s="5" t="inlineStr"/>
+      <c r="M10" s="5" t="inlineStr"/>
+      <c r="N10" s="5" t="inlineStr"/>
+      <c r="O10" s="5" t="inlineStr"/>
+      <c r="P10" s="5" t="inlineStr"/>
+      <c r="Q10" s="5" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="O11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="P11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="Q11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr"/>
+      <c r="D11" s="5" t="inlineStr"/>
+      <c r="E11" s="5" t="inlineStr"/>
+      <c r="F11" s="5" t="inlineStr"/>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="5" t="inlineStr"/>
+      <c r="J11" s="5" t="inlineStr"/>
+      <c r="K11" s="5" t="inlineStr"/>
+      <c r="L11" s="5" t="inlineStr"/>
+      <c r="M11" s="5" t="inlineStr"/>
+      <c r="N11" s="5" t="inlineStr"/>
+      <c r="O11" s="5" t="inlineStr"/>
+      <c r="P11" s="5" t="inlineStr"/>
+      <c r="Q11" s="5" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="inlineStr"/>
+      <c r="D12" s="5" t="inlineStr"/>
+      <c r="E12" s="5" t="inlineStr"/>
+      <c r="F12" s="5" t="inlineStr"/>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="5" t="inlineStr"/>
+      <c r="J12" s="5" t="inlineStr"/>
+      <c r="K12" s="5" t="inlineStr"/>
+      <c r="L12" s="5" t="inlineStr"/>
+      <c r="M12" s="5" t="inlineStr"/>
+      <c r="N12" s="5" t="inlineStr"/>
+      <c r="O12" s="5" t="inlineStr"/>
+      <c r="P12" s="5" t="inlineStr"/>
+      <c r="Q12" s="5" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="inlineStr"/>
+      <c r="D13" s="5" t="inlineStr"/>
+      <c r="E13" s="5" t="inlineStr"/>
+      <c r="F13" s="5" t="inlineStr"/>
+      <c r="G13" s="5" t="inlineStr"/>
+      <c r="H13" s="5" t="inlineStr"/>
+      <c r="I13" s="5" t="inlineStr"/>
+      <c r="J13" s="5" t="inlineStr"/>
+      <c r="K13" s="5" t="inlineStr"/>
+      <c r="L13" s="5" t="inlineStr"/>
+      <c r="M13" s="5" t="inlineStr"/>
+      <c r="N13" s="5" t="inlineStr"/>
+      <c r="O13" s="5" t="inlineStr"/>
+      <c r="P13" s="5" t="inlineStr"/>
+      <c r="Q13" s="5" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="inlineStr"/>
+      <c r="D14" s="5" t="inlineStr"/>
+      <c r="E14" s="5" t="inlineStr"/>
+      <c r="F14" s="5" t="inlineStr"/>
+      <c r="G14" s="5" t="inlineStr"/>
+      <c r="H14" s="5" t="inlineStr"/>
+      <c r="I14" s="5" t="inlineStr"/>
+      <c r="J14" s="5" t="inlineStr"/>
+      <c r="K14" s="5" t="inlineStr"/>
+      <c r="L14" s="5" t="inlineStr"/>
+      <c r="M14" s="5" t="inlineStr"/>
+      <c r="N14" s="5" t="inlineStr"/>
+      <c r="O14" s="5" t="inlineStr"/>
+      <c r="P14" s="5" t="inlineStr"/>
+      <c r="Q14" s="5" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="inlineStr"/>
+      <c r="D15" s="5" t="inlineStr"/>
+      <c r="E15" s="5" t="inlineStr"/>
+      <c r="F15" s="5" t="inlineStr"/>
+      <c r="G15" s="5" t="inlineStr"/>
+      <c r="H15" s="5" t="inlineStr"/>
+      <c r="I15" s="5" t="inlineStr"/>
+      <c r="J15" s="5" t="inlineStr"/>
+      <c r="K15" s="5" t="inlineStr"/>
+      <c r="L15" s="5" t="inlineStr"/>
+      <c r="M15" s="5" t="inlineStr"/>
+      <c r="N15" s="5" t="inlineStr"/>
+      <c r="O15" s="5" t="inlineStr"/>
+      <c r="P15" s="5" t="inlineStr"/>
+      <c r="Q15" s="5" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1356,14 +973,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
     <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_razon/P24_6-Urba-long_razon.xlsx
+++ b/data/long_razon/P24_6-Urba-long_razon.xlsx
@@ -683,21 +683,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr"/>
-      <c r="D4" s="5" t="inlineStr"/>
-      <c r="E4" s="5" t="inlineStr"/>
-      <c r="F4" s="5" t="inlineStr"/>
-      <c r="G4" s="5" t="inlineStr"/>
-      <c r="H4" s="5" t="inlineStr"/>
-      <c r="I4" s="5" t="inlineStr"/>
-      <c r="J4" s="5" t="inlineStr"/>
-      <c r="K4" s="5" t="inlineStr"/>
-      <c r="L4" s="5" t="inlineStr"/>
-      <c r="M4" s="5" t="inlineStr"/>
-      <c r="N4" s="5" t="inlineStr"/>
-      <c r="O4" s="5" t="inlineStr"/>
-      <c r="P4" s="5" t="inlineStr"/>
-      <c r="Q4" s="5" t="inlineStr"/>
+      <c r="C4" s="5" t="n">
+        <v>-0.04617116151932901</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.4215122456702571</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0.01558905400872196</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>0.4158723946119627</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>-0.1636277852002407</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>-0.02999169144946679</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>0.2785818140509733</v>
+      </c>
+      <c r="J4" s="5" t="n">
+        <v>-0.04828675297200952</v>
+      </c>
+      <c r="K4" s="5" t="n">
+        <v>0.1104039144952841</v>
+      </c>
+      <c r="L4" s="5" t="n">
+        <v>0.3078265130534796</v>
+      </c>
+      <c r="M4" s="5" t="n">
+        <v>-0.03736160854473481</v>
+      </c>
+      <c r="N4" s="5" t="n">
+        <v>0.3473911551913266</v>
+      </c>
+      <c r="O4" s="5" t="n">
+        <v>-0.01668412078924358</v>
+      </c>
+      <c r="P4" s="5" t="n">
+        <v>0.2467817261901815</v>
+      </c>
+      <c r="Q4" s="5" t="n">
+        <v>0.04802001419220728</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
@@ -706,21 +736,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr"/>
-      <c r="D5" s="5" t="inlineStr"/>
-      <c r="E5" s="5" t="inlineStr"/>
-      <c r="F5" s="5" t="inlineStr"/>
-      <c r="G5" s="5" t="inlineStr"/>
-      <c r="H5" s="5" t="inlineStr"/>
-      <c r="I5" s="5" t="inlineStr"/>
-      <c r="J5" s="5" t="inlineStr"/>
-      <c r="K5" s="5" t="inlineStr"/>
-      <c r="L5" s="5" t="inlineStr"/>
-      <c r="M5" s="5" t="inlineStr"/>
-      <c r="N5" s="5" t="inlineStr"/>
-      <c r="O5" s="5" t="inlineStr"/>
-      <c r="P5" s="5" t="inlineStr"/>
-      <c r="Q5" s="5" t="inlineStr"/>
+      <c r="C5" s="5" t="n">
+        <v>-0.2968749465786556</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>0.06271108357344997</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.2228348682575753</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>0.05290521017204085</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-0.3637278819306723</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-0.2310875171172198</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>0.04366626951000909</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <v>-0.2144323358913094</v>
+      </c>
+      <c r="K5" s="5" t="n">
+        <v>-0.1058427680557695</v>
+      </c>
+      <c r="L5" s="5" t="n">
+        <v>0.001833722404853491</v>
+      </c>
+      <c r="M5" s="5" t="n">
+        <v>-0.1912788972828502</v>
+      </c>
+      <c r="N5" s="5" t="n">
+        <v>0.1296397233812177</v>
+      </c>
+      <c r="O5" s="5" t="n">
+        <v>-0.1469004963788738</v>
+      </c>
+      <c r="P5" s="5" t="n">
+        <v>0.02711217520091453</v>
+      </c>
+      <c r="Q5" s="5" t="n">
+        <v>-0.1341153486117808</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
@@ -729,21 +789,51 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr"/>
-      <c r="D6" s="5" t="inlineStr"/>
-      <c r="E6" s="5" t="inlineStr"/>
-      <c r="F6" s="5" t="inlineStr"/>
-      <c r="G6" s="5" t="inlineStr"/>
-      <c r="H6" s="5" t="inlineStr"/>
-      <c r="I6" s="5" t="inlineStr"/>
-      <c r="J6" s="5" t="inlineStr"/>
-      <c r="K6" s="5" t="inlineStr"/>
-      <c r="L6" s="5" t="inlineStr"/>
-      <c r="M6" s="5" t="inlineStr"/>
-      <c r="N6" s="5" t="inlineStr"/>
-      <c r="O6" s="5" t="inlineStr"/>
-      <c r="P6" s="5" t="inlineStr"/>
-      <c r="Q6" s="5" t="inlineStr"/>
+      <c r="C6" s="5" t="n">
+        <v>0.2258217400041454</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>0.8376876888544966</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>0.2837396480500012</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>0.9427828387463368</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>0.09616564954199422</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>0.1870104189567846</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>0.5783399075233537</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <v>0.1553458742958521</v>
+      </c>
+      <c r="K6" s="5" t="n">
+        <v>0.3881277464165112</v>
+      </c>
+      <c r="L6" s="5" t="n">
+        <v>0.6298984911974741</v>
+      </c>
+      <c r="M6" s="5" t="n">
+        <v>0.1358625114994307</v>
+      </c>
+      <c r="N6" s="5" t="n">
+        <v>0.5605139710225402</v>
+      </c>
+      <c r="O6" s="5" t="n">
+        <v>0.1266604677215462</v>
+      </c>
+      <c r="P6" s="5" t="n">
+        <v>0.5577256644202833</v>
+      </c>
+      <c r="Q6" s="5" t="n">
+        <v>0.2484038050389348</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -756,21 +846,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C7" s="5" t="inlineStr"/>
-      <c r="D7" s="5" t="inlineStr"/>
-      <c r="E7" s="5" t="inlineStr"/>
-      <c r="F7" s="5" t="inlineStr"/>
-      <c r="G7" s="5" t="inlineStr"/>
-      <c r="H7" s="5" t="inlineStr"/>
-      <c r="I7" s="5" t="inlineStr"/>
-      <c r="J7" s="5" t="inlineStr"/>
-      <c r="K7" s="5" t="inlineStr"/>
-      <c r="L7" s="5" t="inlineStr"/>
-      <c r="M7" s="5" t="inlineStr"/>
-      <c r="N7" s="5" t="inlineStr"/>
-      <c r="O7" s="5" t="inlineStr"/>
-      <c r="P7" s="5" t="inlineStr"/>
-      <c r="Q7" s="5" t="inlineStr"/>
+      <c r="C7" s="5" t="n">
+        <v>-0.2185013939017026</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.902120758532274</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.1654040430151555</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>0.03220966534287129</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>0.02217389126105858</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>-0.3050495007215736</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>0.2583804086038275</v>
+      </c>
+      <c r="J7" s="5" t="n">
+        <v>0.03305890819837103</v>
+      </c>
+      <c r="K7" s="5" t="n">
+        <v>0.3101210863197739</v>
+      </c>
+      <c r="L7" s="5" t="n">
+        <v>-0.2379992492877473</v>
+      </c>
+      <c r="M7" s="5" t="n">
+        <v>-0.2632222469519793</v>
+      </c>
+      <c r="N7" s="5" t="n">
+        <v>0.5634147378743243</v>
+      </c>
+      <c r="O7" s="5" t="n">
+        <v>0.1005189181002502</v>
+      </c>
+      <c r="P7" s="5" t="n">
+        <v>0.148538909951542</v>
+      </c>
+      <c r="Q7" s="5" t="n">
+        <v>-0.09489139942051313</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
@@ -779,21 +899,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C8" s="5" t="inlineStr"/>
-      <c r="D8" s="5" t="inlineStr"/>
-      <c r="E8" s="5" t="inlineStr"/>
-      <c r="F8" s="5" t="inlineStr"/>
-      <c r="G8" s="5" t="inlineStr"/>
-      <c r="H8" s="5" t="inlineStr"/>
-      <c r="I8" s="5" t="inlineStr"/>
-      <c r="J8" s="5" t="inlineStr"/>
-      <c r="K8" s="5" t="inlineStr"/>
-      <c r="L8" s="5" t="inlineStr"/>
-      <c r="M8" s="5" t="inlineStr"/>
-      <c r="N8" s="5" t="inlineStr"/>
-      <c r="O8" s="5" t="inlineStr"/>
-      <c r="P8" s="5" t="inlineStr"/>
-      <c r="Q8" s="5" t="inlineStr"/>
+      <c r="C8" s="5" t="n">
+        <v>-0.4104670857829815</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>0.3805371692319989</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-0.09185816170761867</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-0.2370792979360001</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-0.485225141835109</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-0.4595632670035895</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>-0.07343852602610411</v>
+      </c>
+      <c r="J8" s="5" t="n">
+        <v>-0.1529456229018041</v>
+      </c>
+      <c r="K8" s="5" t="n">
+        <v>-0.01305754793595102</v>
+      </c>
+      <c r="L8" s="5" t="n">
+        <v>-0.5348010092691363</v>
+      </c>
+      <c r="M8" s="5" t="n">
+        <v>-0.3967515366895735</v>
+      </c>
+      <c r="N8" s="5" t="n">
+        <v>0.2806876246331509</v>
+      </c>
+      <c r="O8" s="5" t="n">
+        <v>-0.06355412083131454</v>
+      </c>
+      <c r="P8" s="5" t="n">
+        <v>-0.03904652444334192</v>
+      </c>
+      <c r="Q8" s="5" t="n">
+        <v>-0.4460166402626928</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
@@ -802,21 +952,51 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C9" s="5" t="inlineStr"/>
-      <c r="D9" s="5" t="inlineStr"/>
-      <c r="E9" s="5" t="inlineStr"/>
-      <c r="F9" s="5" t="inlineStr"/>
-      <c r="G9" s="5" t="inlineStr"/>
-      <c r="H9" s="5" t="inlineStr"/>
-      <c r="I9" s="5" t="inlineStr"/>
-      <c r="J9" s="5" t="inlineStr"/>
-      <c r="K9" s="5" t="inlineStr"/>
-      <c r="L9" s="5" t="inlineStr"/>
-      <c r="M9" s="5" t="inlineStr"/>
-      <c r="N9" s="5" t="inlineStr"/>
-      <c r="O9" s="5" t="inlineStr"/>
-      <c r="P9" s="5" t="inlineStr"/>
-      <c r="Q9" s="5" t="inlineStr"/>
+      <c r="C9" s="5" t="n">
+        <v>0.0339858737815301</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>1.607308473545798</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.4746708786590996</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.4009182555778051</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.6644374552271447</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>-0.1141678651842659</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>0.6222129601946211</v>
+      </c>
+      <c r="J9" s="5" t="n">
+        <v>0.2716886578369975</v>
+      </c>
+      <c r="K9" s="5" t="n">
+        <v>0.6852593248798703</v>
+      </c>
+      <c r="L9" s="5" t="n">
+        <v>0.3059061192974494</v>
+      </c>
+      <c r="M9" s="5" t="n">
+        <v>-0.1285401553964265</v>
+      </c>
+      <c r="N9" s="5" t="n">
+        <v>0.9364231895707057</v>
+      </c>
+      <c r="O9" s="5" t="n">
+        <v>0.295521162253147</v>
+      </c>
+      <c r="P9" s="5" t="n">
+        <v>0.4055913921705097</v>
+      </c>
+      <c r="Q9" s="5" t="n">
+        <v>0.2262126230163651</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -829,20 +1009,44 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="5" t="inlineStr"/>
-      <c r="D10" s="5" t="inlineStr"/>
-      <c r="E10" s="5" t="inlineStr"/>
-      <c r="F10" s="5" t="inlineStr"/>
+      <c r="C10" s="5" t="n">
+        <v>-0.1213176758044306</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0.1718271933363506</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.7667832973079581</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>1.353341691861797</v>
+      </c>
       <c r="G10" s="5" t="inlineStr"/>
-      <c r="H10" s="5" t="inlineStr"/>
-      <c r="I10" s="5" t="inlineStr"/>
-      <c r="J10" s="5" t="inlineStr"/>
-      <c r="K10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="n">
+        <v>0.2682983956339643</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>0.4035853394163263</v>
+      </c>
+      <c r="J10" s="5" t="n">
+        <v>-0.2346558656191594</v>
+      </c>
+      <c r="K10" s="5" t="n">
+        <v>-0.2126232938529805</v>
+      </c>
       <c r="L10" s="5" t="inlineStr"/>
-      <c r="M10" s="5" t="inlineStr"/>
-      <c r="N10" s="5" t="inlineStr"/>
-      <c r="O10" s="5" t="inlineStr"/>
-      <c r="P10" s="5" t="inlineStr"/>
+      <c r="M10" s="5" t="n">
+        <v>0.07473371937392212</v>
+      </c>
+      <c r="N10" s="5" t="n">
+        <v>0.2799253995317464</v>
+      </c>
+      <c r="O10" s="5" t="n">
+        <v>0.1666754280005696</v>
+      </c>
+      <c r="P10" s="5" t="n">
+        <v>0.3622036438448972</v>
+      </c>
       <c r="Q10" s="5" t="inlineStr"/>
     </row>
     <row r="11">
@@ -852,20 +1056,44 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C11" s="5" t="inlineStr"/>
-      <c r="D11" s="5" t="inlineStr"/>
-      <c r="E11" s="5" t="inlineStr"/>
-      <c r="F11" s="5" t="inlineStr"/>
+      <c r="C11" s="5" t="n">
+        <v>-0.510116303825952</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-0.2882212504583255</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.07922062948993885</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.04615957320611409</v>
+      </c>
       <c r="G11" s="5" t="inlineStr"/>
-      <c r="H11" s="5" t="inlineStr"/>
-      <c r="I11" s="5" t="inlineStr"/>
-      <c r="J11" s="5" t="inlineStr"/>
-      <c r="K11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="n">
+        <v>-0.2070626557317942</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>-0.114742131934965</v>
+      </c>
+      <c r="J11" s="5" t="n">
+        <v>-0.5051732088577374</v>
+      </c>
+      <c r="K11" s="5" t="n">
+        <v>-0.5619169408752335</v>
+      </c>
       <c r="L11" s="5" t="inlineStr"/>
-      <c r="M11" s="5" t="inlineStr"/>
-      <c r="N11" s="5" t="inlineStr"/>
-      <c r="O11" s="5" t="inlineStr"/>
-      <c r="P11" s="5" t="inlineStr"/>
+      <c r="M11" s="5" t="n">
+        <v>-0.246699485118556</v>
+      </c>
+      <c r="N11" s="5" t="n">
+        <v>-0.06626711752763412</v>
+      </c>
+      <c r="O11" s="5" t="n">
+        <v>-0.1423514087990451</v>
+      </c>
+      <c r="P11" s="5" t="n">
+        <v>-0.1366376869001169</v>
+      </c>
       <c r="Q11" s="5" t="inlineStr"/>
     </row>
     <row r="12">
@@ -875,20 +1103,44 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C12" s="5" t="inlineStr"/>
-      <c r="D12" s="5" t="inlineStr"/>
-      <c r="E12" s="5" t="inlineStr"/>
-      <c r="F12" s="5" t="inlineStr"/>
+      <c r="C12" s="5" t="n">
+        <v>0.5502315875870682</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>0.8933540090643435</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>1.850254480238791</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>4.50743466611318</v>
+      </c>
       <c r="G12" s="5" t="inlineStr"/>
-      <c r="H12" s="5" t="inlineStr"/>
-      <c r="I12" s="5" t="inlineStr"/>
-      <c r="J12" s="5" t="inlineStr"/>
-      <c r="K12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="n">
+        <v>1.025763866222344</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>1.34238553103233</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <v>0.1926128006946712</v>
+      </c>
+      <c r="K12" s="5" t="n">
+        <v>0.35615968903165</v>
+      </c>
       <c r="L12" s="5" t="inlineStr"/>
-      <c r="M12" s="5" t="inlineStr"/>
-      <c r="N12" s="5" t="inlineStr"/>
-      <c r="O12" s="5" t="inlineStr"/>
-      <c r="P12" s="5" t="inlineStr"/>
+      <c r="M12" s="5" t="n">
+        <v>0.5207079975877377</v>
+      </c>
+      <c r="N12" s="5" t="n">
+        <v>0.8334276209987029</v>
+      </c>
+      <c r="O12" s="5" t="n">
+        <v>0.5701656274532342</v>
+      </c>
+      <c r="P12" s="5" t="n">
+        <v>1.293322087247343</v>
+      </c>
       <c r="Q12" s="5" t="inlineStr"/>
     </row>
     <row r="13">
@@ -902,21 +1154,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C13" s="5" t="inlineStr"/>
-      <c r="D13" s="5" t="inlineStr"/>
-      <c r="E13" s="5" t="inlineStr"/>
-      <c r="F13" s="5" t="inlineStr"/>
-      <c r="G13" s="5" t="inlineStr"/>
-      <c r="H13" s="5" t="inlineStr"/>
-      <c r="I13" s="5" t="inlineStr"/>
-      <c r="J13" s="5" t="inlineStr"/>
-      <c r="K13" s="5" t="inlineStr"/>
-      <c r="L13" s="5" t="inlineStr"/>
-      <c r="M13" s="5" t="inlineStr"/>
-      <c r="N13" s="5" t="inlineStr"/>
-      <c r="O13" s="5" t="inlineStr"/>
-      <c r="P13" s="5" t="inlineStr"/>
-      <c r="Q13" s="5" t="inlineStr"/>
+      <c r="C13" s="5" t="n">
+        <v>-0.1333949623178583</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.5540022977019</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.1431456717273704</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0.3045610922911554</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>-0.1174569601006774</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>-0.1212131582807777</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>0.2854146192476535</v>
+      </c>
+      <c r="J13" s="5" t="n">
+        <v>-0.04108061376173706</v>
+      </c>
+      <c r="K13" s="5" t="n">
+        <v>0.135523378139598</v>
+      </c>
+      <c r="L13" s="5" t="n">
+        <v>0.1717683015054224</v>
+      </c>
+      <c r="M13" s="5" t="n">
+        <v>-0.1269658271794698</v>
+      </c>
+      <c r="N13" s="5" t="n">
+        <v>0.4157475806115385</v>
+      </c>
+      <c r="O13" s="5" t="n">
+        <v>0.04928510875905166</v>
+      </c>
+      <c r="P13" s="5" t="n">
+        <v>0.2188629384198779</v>
+      </c>
+      <c r="Q13" s="5" t="n">
+        <v>0.01245745064411255</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
@@ -925,21 +1207,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C14" s="5" t="inlineStr"/>
-      <c r="D14" s="5" t="inlineStr"/>
-      <c r="E14" s="5" t="inlineStr"/>
-      <c r="F14" s="5" t="inlineStr"/>
-      <c r="G14" s="5" t="inlineStr"/>
-      <c r="H14" s="5" t="inlineStr"/>
-      <c r="I14" s="5" t="inlineStr"/>
-      <c r="J14" s="5" t="inlineStr"/>
-      <c r="K14" s="5" t="inlineStr"/>
-      <c r="L14" s="5" t="inlineStr"/>
-      <c r="M14" s="5" t="inlineStr"/>
-      <c r="N14" s="5" t="inlineStr"/>
-      <c r="O14" s="5" t="inlineStr"/>
-      <c r="P14" s="5" t="inlineStr"/>
-      <c r="Q14" s="5" t="inlineStr"/>
+      <c r="C14" s="5" t="n">
+        <v>-0.2866620539520028</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>0.2939644182744625</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.02305238339024707</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>0.07213212018490074</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-0.3284734672756198</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>-0.2433070224644115</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>0.09788378181728294</v>
+      </c>
+      <c r="J14" s="5" t="n">
+        <v>-0.1731580640110022</v>
+      </c>
+      <c r="K14" s="5" t="n">
+        <v>-0.03106359248826299</v>
+      </c>
+      <c r="L14" s="5" t="n">
+        <v>-0.05998342977153449</v>
+      </c>
+      <c r="M14" s="5" t="n">
+        <v>-0.2293954312060401</v>
+      </c>
+      <c r="N14" s="5" t="n">
+        <v>0.2397507893109614</v>
+      </c>
+      <c r="O14" s="5" t="n">
+        <v>-0.0605897595029188</v>
+      </c>
+      <c r="P14" s="5" t="n">
+        <v>0.07328589636843132</v>
+      </c>
+      <c r="Q14" s="5" t="n">
+        <v>-0.152858051570735</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
@@ -948,21 +1260,51 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C15" s="5" t="inlineStr"/>
-      <c r="D15" s="5" t="inlineStr"/>
-      <c r="E15" s="5" t="inlineStr"/>
-      <c r="F15" s="5" t="inlineStr"/>
-      <c r="G15" s="5" t="inlineStr"/>
-      <c r="H15" s="5" t="inlineStr"/>
-      <c r="I15" s="5" t="inlineStr"/>
-      <c r="J15" s="5" t="inlineStr"/>
-      <c r="K15" s="5" t="inlineStr"/>
-      <c r="L15" s="5" t="inlineStr"/>
-      <c r="M15" s="5" t="inlineStr"/>
-      <c r="N15" s="5" t="inlineStr"/>
-      <c r="O15" s="5" t="inlineStr"/>
-      <c r="P15" s="5" t="inlineStr"/>
-      <c r="Q15" s="5" t="inlineStr"/>
+      <c r="C15" s="5" t="n">
+        <v>0.04398256495187837</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.9042624458149569</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0.3454733366807654</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>0.6544206924178897</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>0.1196375946841597</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>0.03103242924109105</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>0.5057667922151563</v>
+      </c>
+      <c r="J15" s="5" t="n">
+        <v>0.08886941207280347</v>
+      </c>
+      <c r="K15" s="5" t="n">
+        <v>0.3372934016362027</v>
+      </c>
+      <c r="L15" s="5" t="n">
+        <v>0.4550771646023725</v>
+      </c>
+      <c r="M15" s="5" t="n">
+        <v>-0.01846303111365101</v>
+      </c>
+      <c r="N15" s="5" t="n">
+        <v>0.5828956164637442</v>
+      </c>
+      <c r="O15" s="5" t="n">
+        <v>0.1584460765647197</v>
+      </c>
+      <c r="P15" s="5" t="n">
+        <v>0.4186559281405822</v>
+      </c>
+      <c r="Q15" s="5" t="n">
+        <v>0.1917239651057516</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
